--- a/data/Sample.xlsx
+++ b/data/Sample.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>a1234567890</t>
   </si>
@@ -43,6 +43,21 @@
   </si>
   <si>
     <t>Đăng nhập không thành công!</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>errorEmailValidationMess</t>
+  </si>
+  <si>
+    <t>errorPassValidationMess</t>
+  </si>
+  <si>
+    <t>errorMessage</t>
   </si>
 </sst>
 </file>
@@ -400,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,39 +430,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -455,17 +476,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/data/Sample.xlsx
+++ b/data/Sample.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
